--- a/Resultados/Mercado mundial - Otras bayas y frutos del género vaccinium n.c.p..xlsx
+++ b/Resultados/Mercado mundial - Otras bayas y frutos del género vaccinium n.c.p..xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Mexico" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Viet Nam" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Papua New Guinea" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Poland" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Viet Nam" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Papua Nueva Guinea" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Polonia" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,7 +307,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,18 +488,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Producción (Miles de Toneladas)</a:t>
+              <a:t>Producción (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -515,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -558,7 +557,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -571,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Viet Nam'!$B$12:$B$73</f>
+              <f>'Viet Nam'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Viet Nam'!$C$12:$C$73</f>
+              <f>'Viet Nam'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Papua New Guinea'!$B$12:$B$73</f>
+              <f>'Papua Nueva Guinea'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Papua New Guinea'!$C$12:$C$73</f>
+              <f>'Papua Nueva Guinea'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Poland'!$B$12:$B$73</f>
+              <f>'Polonia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Poland'!$C$12:$C$73</f>
+              <f>'Polonia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>150830</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.9093</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1042134.58</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.9093</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>122450.76</v>
@@ -2161,10 +2160,10 @@
         <v>148129</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>7.047899999999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1043990.14</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>7.047899999999999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>151612.13</v>
@@ -2183,10 +2182,10 @@
         <v>146906</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>7.0106</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1029895.75</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>7.0106</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>145907.91</v>
@@ -2205,10 +2204,10 @@
         <v>152693</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6.644699999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1014604.06</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6.644699999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>127325.59</v>
@@ -2227,10 +2226,10 @@
         <v>149313</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>7.0223</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1048519.66</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>7.0223</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>119437.79</v>
@@ -2249,10 +2248,10 @@
         <v>142153</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>7.1933</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1022545.01</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>7.1933</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>104112.89</v>
@@ -2271,10 +2270,10 @@
         <v>152509</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.549</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>998780.0600000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.549</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>89393.50999999999</v>
@@ -2293,10 +2292,10 @@
         <v>133817</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7.0142</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>938624.5699999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7.0142</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>83822.86</v>
@@ -2315,10 +2314,10 @@
         <v>120544</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.4261</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>774625.39</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.4261</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>73695.71000000001</v>
@@ -2337,10 +2336,10 @@
         <v>121311</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6.8547</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>831546.37</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6.8547</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>58833.33</v>
@@ -2359,10 +2358,10 @@
         <v>119409</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>6.9315</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>827688.36</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>6.9315</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -2377,10 +2376,10 @@
         <v>117748</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7.104</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>836475.51</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7.104</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -2395,10 +2394,10 @@
         <v>115313</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>7.1418</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>823551.13</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>7.1418</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -2413,10 +2412,10 @@
         <v>113311</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6.627899999999999</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>751016.9</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6.627899999999999</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -2431,10 +2430,10 @@
         <v>104486</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>7.6223</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>796425</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>7.6223</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -2449,10 +2448,10 @@
         <v>105624</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>7.6802</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>811211.46</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>7.6802</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -2467,10 +2466,10 @@
         <v>102984</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>7.0763</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>728745.58</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>7.0763</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -2485,10 +2484,10 @@
         <v>100804</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6.8443</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>689938.65</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6.8443</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -2503,10 +2502,10 @@
         <v>97614</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>7.0616</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>689313.47</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>7.0616</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -2521,10 +2520,10 @@
         <v>93161</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6.8649</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>639542.05</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6.8649</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -2539,10 +2538,10 @@
         <v>93934</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>6.9211</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>650131.23</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>6.9211</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -2557,10 +2556,10 @@
         <v>84329</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6.5695</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>553999.58</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6.5695</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -2575,10 +2574,10 @@
         <v>82258</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6.6955</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>550762.0600000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6.6955</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -2593,10 +2592,10 @@
         <v>78630</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6.702100000000001</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>526985.17</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6.702100000000001</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -2611,10 +2610,10 @@
         <v>76645</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6.4349</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>493205.87</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6.4349</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -2629,10 +2628,10 @@
         <v>75357</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6.458699999999999</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>486703.56</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6.458699999999999</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -2647,10 +2646,10 @@
         <v>72938</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>6.7735</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>494041.59</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>6.7735</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -2665,10 +2664,10 @@
         <v>74403</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6.7272</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>500521.75</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>6.7272</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -2683,10 +2682,10 @@
         <v>75493</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>6.875100000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>519023.28</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>6.875100000000001</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -2701,10 +2700,10 @@
         <v>74558</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6.961399999999999</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>519025.84</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6.961399999999999</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -2719,10 +2718,10 @@
         <v>71145</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>7.1589</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>509321.53</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>7.1589</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -2737,10 +2736,10 @@
         <v>66643</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7.7138</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>514072.9</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7.7138</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -2755,10 +2754,10 @@
         <v>73021</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>462955.86</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>6.34</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -2773,10 +2772,10 @@
         <v>62192</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6.7839</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>421904.76</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6.7839</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -2791,10 +2790,10 @@
         <v>58364</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6.4369</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>375685</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6.4369</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -2809,10 +2808,10 @@
         <v>53960</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>6.5572</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>353824</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>6.5572</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -2827,10 +2826,10 @@
         <v>56690</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6.3454</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>359719</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>6.3454</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -2845,10 +2844,10 @@
         <v>54936</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6.3706</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>349974</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>6.3706</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -2863,10 +2862,10 @@
         <v>55398</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6.4132</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>355280</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6.4132</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -2881,10 +2880,10 @@
         <v>55662</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>6.8871</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>383349</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>6.8871</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -2899,10 +2898,10 @@
         <v>49774</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>7.690300000000001</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>382779</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>7.690300000000001</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -2917,10 +2916,10 @@
         <v>52803</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7.0932</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>374543</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>7.0932</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -2935,10 +2934,10 @@
         <v>49000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>7.4764</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>366346</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>7.4764</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -2953,10 +2952,10 @@
         <v>49986</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>7.3447</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>367133</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>7.3447</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -2971,10 +2970,10 @@
         <v>49044</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7.0859</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>347523</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>7.0859</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -2989,10 +2988,10 @@
         <v>49465</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>6.8787</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>340255</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>6.8787</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -3007,10 +3006,10 @@
         <v>48147</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>6.3264</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>304596</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>6.3264</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -3025,10 +3024,10 @@
         <v>47633</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>6.8425</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>325928</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>6.8425</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -3043,10 +3042,10 @@
         <v>46388</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>6.7811</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>314563</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>6.7811</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -3061,10 +3060,10 @@
         <v>46486</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>6.7255</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>312641</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>6.7255</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -3079,10 +3078,10 @@
         <v>44625</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6.6376</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>296202</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6.6376</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -3097,10 +3096,10 @@
         <v>45231</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>6.8183</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>308398</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>6.8183</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -3115,10 +3114,10 @@
         <v>48357</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6.349399999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>307038</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6.349399999999999</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -3133,10 +3132,10 @@
         <v>43190</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>7.084</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>305959</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>7.084</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -3151,10 +3150,10 @@
         <v>40855</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>7.3533</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>300419</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>7.3533</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -3169,10 +3168,10 @@
         <v>41318</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7.4095</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>306145</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7.4095</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -3187,10 +3186,10 @@
         <v>40048</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7.3997</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>296345</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7.3997</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -3204,10 +3203,10 @@
         <v>39954</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>7.3262</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>292712</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>7.3262</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -3221,10 +3220,10 @@
         <v>41003</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8.035399999999999</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>329476</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8.035399999999999</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -3238,10 +3237,10 @@
         <v>40935</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>7.9118</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>323869</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>7.9118</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -3255,10 +3254,10 @@
         <v>39818</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>7.7719</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>309462</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>7.7719</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -3272,10 +3271,10 @@
         <v>38362</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>7.7842</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>298619</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>7.7842</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -3289,10 +3288,10 @@
         <v>38048</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8.030899999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>305559</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8.030899999999999</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -3575,8 +3574,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3671,7 +3670,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3699,7 +3698,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Papua Nueva Guinea</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3727,7 +3726,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3755,7 +3754,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3769,7 +3768,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Azerbaiyán</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3783,7 +3782,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Afganistán</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3797,7 +3796,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -3905,7 +3904,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4004,7 +4003,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4018,7 +4017,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4032,7 +4031,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4046,7 +4045,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Sudáfrica</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4060,7 +4059,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, Hong Kong SAR</t>
+          <t>China, RAE de Hong Kong</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4102,7 +4101,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4326,8 +4325,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4422,7 +4421,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4436,7 +4435,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, Hong Kong SAR</t>
+          <t>China, RAE de Hong Kong</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4450,7 +4449,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4464,7 +4463,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4478,7 +4477,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4492,7 +4491,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4506,7 +4505,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4520,7 +4519,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4534,7 +4533,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Singapur</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4548,7 +4547,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Arabia Saudita</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4562,43 +4561,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>563.97</v>
+        <v>33939.81</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.004605688033295996</v>
+        <v>0.2771710849324251</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>33375.84</v>
+        <v>122450.76</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2725653968991291</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>122450.76</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4608,59 +4599,58 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4730,7 +4720,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -4809,10 +4799,10 @@
         <v>10885</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>21.8755</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>238122.15</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>21.8755</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>563.97</v>
@@ -4831,10 +4821,10 @@
         <v>9661</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>23.042</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>222608.25</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>23.042</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>616.16</v>
@@ -4853,10 +4843,10 @@
         <v>9187</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>23.0059</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>211357.51</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>23.0059</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>373.85</v>
@@ -4875,10 +4865,10 @@
         <v>9554</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.6007</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>215923.73</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.6007</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>108.69</v>
@@ -4897,10 +4887,10 @@
         <v>12900</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>23.1034</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>298024.07</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>23.1034</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>297.56</v>
@@ -4919,10 +4909,10 @@
         <v>13164</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>21.8119</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>287124.81</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>21.8119</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>600.4</v>
@@ -4941,10 +4931,10 @@
         <v>12561</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>21.5268</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>270399.37</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>21.5268</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>538.1</v>
@@ -4963,10 +4953,10 @@
         <v>12963</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>19.1703</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>248511.59</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>19.1703</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>469.21</v>
@@ -4985,10 +4975,10 @@
         <v>10006</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>12.3011</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>123090.56</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>12.3011</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>298.97</v>
@@ -5007,10 +4997,10 @@
         <v>12479</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>12.2548</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>152921.52</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>12.2548</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>320.85</v>
@@ -5029,10 +5019,10 @@
         <v>11889</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>10.8483</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>128976</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>10.8483</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -5047,10 +5037,10 @@
         <v>11422</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>12.2398</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>139803</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>12.2398</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -5065,10 +5055,10 @@
         <v>10724</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>12.6411</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>135563</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>12.6411</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -5083,10 +5073,10 @@
         <v>6392</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.6305</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>61558</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>9.6305</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -5101,10 +5091,10 @@
         <v>6666</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>17.3959</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>115961</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>17.3959</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -5119,10 +5109,10 @@
         <v>6460</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>18.3316</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>118422</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>18.3316</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -5137,10 +5127,10 @@
         <v>3237</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>13.6348</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>44136</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>13.6348</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -5155,10 +5145,10 @@
         <v>3047</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>13.9472</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>42497</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>13.9472</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -5173,10 +5163,10 @@
         <v>2654</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>13.2385</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>35135</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>13.2385</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -5191,10 +5181,10 @@
         <v>2140</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>12.4752</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>26697</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>12.4752</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -5209,10 +5199,10 @@
         <v>2001</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>13.8156</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>27645</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>13.8156</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -5227,10 +5217,10 @@
         <v>1042</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>10.6689</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>11117</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>10.6689</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -5245,10 +5235,10 @@
         <v>990</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>11.6869</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>11570</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>11.6869</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -5263,10 +5253,10 @@
         <v>1153</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>11.7381</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>13534</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>11.7381</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -5281,10 +5271,10 @@
         <v>1046</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>10.9924</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>11498</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>10.9924</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -5299,10 +5289,10 @@
         <v>923</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>11.5341</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>10646</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>11.5341</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -5317,10 +5307,10 @@
         <v>750</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.472</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5604</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7.472</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -5335,10 +5325,10 @@
         <v>698</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>9765</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>13.99</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -5353,10 +5343,10 @@
         <v>551</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>13.7459</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7574</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>13.7459</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -5371,10 +5361,10 @@
         <v>535</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.243</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5480</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.243</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -5389,10 +5379,10 @@
         <v>225</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3996</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>17.76</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -5407,10 +5397,10 @@
         <v>190</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>17.1579</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3260</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>17.1579</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -5425,10 +5415,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>16</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>8</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -5443,10 +5433,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>15</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7.5</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -6120,7 +6110,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6199,10 +6189,10 @@
         <v>12038</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>10.0889</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>121448.61</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>10.0889</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>18.64</v>
@@ -6221,10 +6211,10 @@
         <v>12062</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>10.0835</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>121626.29</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>10.0835</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>18.06</v>
@@ -6243,10 +6233,10 @@
         <v>12043</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>10.069</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>121255.97</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>10.069</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="inlineStr"/>
@@ -6261,10 +6251,10 @@
         <v>12009</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>10.1143</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>121463.58</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>10.1143</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="inlineStr"/>
@@ -6279,10 +6269,10 @@
         <v>12134</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>10.0675</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>122159.31</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>10.0675</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="inlineStr"/>
@@ -6297,10 +6287,10 @@
         <v>11984</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>10.0251</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>120145.01</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>10.0251</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -6315,10 +6305,10 @@
         <v>12720</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>10.0528</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>127874.2</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>10.0528</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -6333,10 +6323,10 @@
         <v>13046</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>10.0095</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>130579.76</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>10.0095</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -6351,10 +6341,10 @@
         <v>10187</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>10.0104</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>101981.08</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>10.0104</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="inlineStr"/>
@@ -6369,10 +6359,10 @@
         <v>14091</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>9.980600000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>140641.31</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>9.980600000000001</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -6387,10 +6377,10 @@
         <v>14858</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>10.0363</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>149116.9</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>10.0363</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -6405,10 +6395,10 @@
         <v>14500</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>10.2069</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>148000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>10.2069</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -6423,10 +6413,10 @@
         <v>14593</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>9.8546</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>143807.21</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>9.8546</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -6441,10 +6431,10 @@
         <v>14430</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.7552</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>140768.31</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>9.7552</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -6459,10 +6449,10 @@
         <v>14200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>9.718299999999999</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>138000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>9.718299999999999</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -6477,10 +6467,10 @@
         <v>14000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9.7857</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>137000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9.7857</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -6495,10 +6485,10 @@
         <v>14000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9.642899999999999</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>135000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9.642899999999999</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -6513,10 +6503,10 @@
         <v>13500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9.777799999999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>132000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9.777799999999999</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -6531,10 +6521,10 @@
         <v>13500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>9.582700000000001</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>129366.72</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>9.582700000000001</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -6549,10 +6539,10 @@
         <v>13000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9.461499999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>123000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>9.461499999999999</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -6567,10 +6557,10 @@
         <v>13200</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>9.0909</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>9.0909</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -6585,10 +6575,10 @@
         <v>12780</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>9.3421</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>119395.65</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>9.3421</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -6603,10 +6593,10 @@
         <v>12500</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>9.504</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>118800</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>9.504</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -6621,10 +6611,10 @@
         <v>10500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>9.4762</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>99500</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>9.4762</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -6639,10 +6629,10 @@
         <v>9600</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8.510399999999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>81700</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>8.510399999999999</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -6657,10 +6647,10 @@
         <v>10000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -6675,10 +6665,10 @@
         <v>11000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>9.0909</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>9.0909</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -6693,10 +6683,10 @@
         <v>13000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>9.230799999999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>9.230799999999999</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -6711,10 +6701,10 @@
         <v>14000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>9.2857</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>130000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>9.2857</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -6729,10 +6719,10 @@
         <v>15000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>135000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>9</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -6747,10 +6737,10 @@
         <v>14000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>140000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -6765,10 +6755,10 @@
         <v>12000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>142800</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>11.9</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -6783,10 +6773,10 @@
         <v>10000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>103500</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>10.35</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -6801,10 +6791,10 @@
         <v>11000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>9.1091</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>100200</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>9.1091</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -6819,10 +6809,10 @@
         <v>6500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>8.7538</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>56900</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>8.7538</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -6837,10 +6827,10 @@
         <v>5700</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>8.0175</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>45700</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>8.0175</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -6855,10 +6845,10 @@
         <v>6700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>8.0448</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>53900</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>8.0448</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -6873,10 +6863,10 @@
         <v>6700</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8.4925</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>56900</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8.4925</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -6891,10 +6881,10 @@
         <v>6900</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8.087</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>55800</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8.087</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -6909,10 +6899,10 @@
         <v>9000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>8.0222</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>72200</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>8.0222</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -6927,10 +6917,10 @@
         <v>8000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>68000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8.5</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -6945,10 +6935,10 @@
         <v>9000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>6.6667</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>60000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>6.6667</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -6963,10 +6953,10 @@
         <v>6000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9.166700000000001</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>55000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9.166700000000001</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -6981,10 +6971,10 @@
         <v>7000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>6.4286</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>45000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>6.4286</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -6999,10 +6989,10 @@
         <v>6500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>6.1538</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>40000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>6.1538</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -7017,10 +7007,10 @@
         <v>6500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4.615399999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>30000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4.615399999999999</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -7035,10 +7025,10 @@
         <v>6000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3.3333</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>20000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3.3333</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -7053,10 +7043,10 @@
         <v>5500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.7273</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>15000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.7273</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -7071,10 +7061,10 @@
         <v>5000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.2</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -7089,10 +7079,10 @@
         <v>4500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -7107,10 +7097,10 @@
         <v>4200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1.6667</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1.6667</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -7125,10 +7115,10 @@
         <v>4000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.25</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -7143,10 +7133,10 @@
         <v>3500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.8571</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -7161,10 +7151,10 @@
         <v>3000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1575</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.525</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -7179,10 +7169,10 @@
         <v>2000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2560</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.28</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -7197,10 +7187,10 @@
         <v>1500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1.9633</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2945</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1.9633</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -7215,10 +7205,10 @@
         <v>1100</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3.8591</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4245</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3.8591</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -7232,10 +7222,10 @@
         <v>1900</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3.8632</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>7340</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3.8632</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -7249,10 +7239,10 @@
         <v>3000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>11730</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3.91</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -7266,10 +7256,10 @@
         <v>3700</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3.8405</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>14210</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3.8405</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -7283,10 +7273,10 @@
         <v>2800</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3.8607</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10810</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3.8607</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -7300,10 +7290,10 @@
         <v>1700</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3.8176</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6490</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3.8176</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -7317,10 +7307,10 @@
         <v>1700</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3.7853</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6435</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3.7853</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -7652,7 +7642,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7731,16 +7721,17 @@
         <v>21871</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5.0273</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>109950.2</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5.0273</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1.39</v>
       </c>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="G12" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -7751,16 +7742,17 @@
         <v>21781</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5.033</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>109623.91</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5.033</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="G13" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -7771,16 +7763,17 @@
         <v>21692</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5.0387</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>109297.63</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5.0387</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>12.2</v>
       </c>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="G14" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -7791,16 +7784,17 @@
         <v>21655</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5.043399999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>109213.84</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5.043399999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>212.31</v>
       </c>
-      <c r="G15" s="29" t="inlineStr"/>
-      <c r="H15" s="29" t="n"/>
+      <c r="G15" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -7811,16 +7805,17 @@
         <v>21324</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5.0457</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>107596.93</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5.0457</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.62</v>
       </c>
-      <c r="G16" s="29" t="inlineStr"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="G16" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -7831,16 +7826,17 @@
         <v>21265</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>5.0521</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>107433.22</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>5.0521</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.53</v>
       </c>
-      <c r="G17" s="29" t="inlineStr"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="G17" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -7851,16 +7847,17 @@
         <v>21233</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5.0565</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>107366.18</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5.0565</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.43</v>
       </c>
-      <c r="G18" s="29" t="inlineStr"/>
-      <c r="H18" s="29" t="n"/>
+      <c r="G18" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -7871,16 +7868,17 @@
         <v>21217</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>5.062600000000001</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>107413.11</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>5.062600000000001</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.84</v>
       </c>
-      <c r="G19" s="29" t="inlineStr"/>
-      <c r="H19" s="29" t="n"/>
+      <c r="G19" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -7891,16 +7889,17 @@
         <v>21195</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>5.0627</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>107306.28</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>5.0627</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5.51</v>
       </c>
-      <c r="G20" s="29" t="inlineStr"/>
-      <c r="H20" s="29" t="n"/>
+      <c r="G20" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -7911,16 +7910,17 @@
         <v>21096</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>5.065300000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>106858.93</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>5.065300000000001</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1.33</v>
       </c>
-      <c r="G21" s="29" t="inlineStr"/>
-      <c r="H21" s="29" t="n"/>
+      <c r="G21" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -7931,14 +7931,15 @@
         <v>21069</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5.0804</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>107038.56</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>5.0804</v>
-      </c>
       <c r="F22" s="29" t="inlineStr"/>
-      <c r="G22" s="29" t="inlineStr"/>
-      <c r="H22" s="29" t="n"/>
+      <c r="G22" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -7949,14 +7950,15 @@
         <v>21000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.0714</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>106500</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>5.0714</v>
-      </c>
       <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
-      <c r="H23" s="29" t="n"/>
+      <c r="G23" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -7967,14 +7969,15 @@
         <v>20700</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5.0725</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>105000</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>5.0725</v>
-      </c>
       <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="inlineStr"/>
-      <c r="H24" s="29" t="n"/>
+      <c r="G24" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -7985,14 +7988,15 @@
         <v>20800</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5.0962</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>106000</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>5.0962</v>
-      </c>
       <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="G25" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -8003,14 +8007,15 @@
         <v>20600</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.0485</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>104000</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>5.0485</v>
-      </c>
       <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="G26" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -8021,14 +8026,15 @@
         <v>20500</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.122</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>105000</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>5.122</v>
-      </c>
       <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="G27" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -8039,14 +8045,15 @@
         <v>20700</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>4.9758</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>103000</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>4.9758</v>
-      </c>
       <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="G28" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -8057,14 +8064,15 @@
         <v>20500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.3659</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>110000</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>5.3659</v>
-      </c>
       <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="G29" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -8075,14 +8083,15 @@
         <v>20266</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5.1745</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>104865.27</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>5.1745</v>
-      </c>
       <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="G30" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -8093,14 +8102,15 @@
         <v>20000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>104000</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>5.2</v>
-      </c>
       <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="G31" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -8111,14 +8121,15 @@
         <v>19869</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5.1617</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>102557.15</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>5.1617</v>
-      </c>
       <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="G32" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -8129,14 +8140,15 @@
         <v>19756</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5.1631</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>102000</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>5.1631</v>
-      </c>
       <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="G33" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -8147,14 +8159,15 @@
         <v>19500</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>5.1282</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>100000</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>5.1282</v>
-      </c>
       <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="G34" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -8165,14 +8178,15 @@
         <v>18500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>5.2703</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>97500</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>5.2703</v>
-      </c>
       <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="G35" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -8183,14 +8197,15 @@
         <v>18540</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>5.178</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>96000</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>5.178</v>
-      </c>
       <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="G36" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -8201,14 +8216,15 @@
         <v>18000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5.1667</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>93000</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>5.1667</v>
-      </c>
       <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="G37" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -8219,14 +8235,15 @@
         <v>17573</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5.1785</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>91000</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>5.1785</v>
-      </c>
       <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="G38" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -8237,14 +8254,15 @@
         <v>17476</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5.1834</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>90584.47</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>5.1834</v>
-      </c>
       <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="G39" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -8255,14 +8273,15 @@
         <v>17347</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5.1882</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>5.1882</v>
-      </c>
       <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="G40" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -8273,14 +8292,15 @@
         <v>17000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5.235300000000001</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>89000</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>5.235300000000001</v>
-      </c>
       <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="G41" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -8291,14 +8311,15 @@
         <v>16950</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5.1916</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>88000</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>5.1916</v>
-      </c>
       <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="G42" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -8309,14 +8330,15 @@
         <v>16758</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>5.1916</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>87000</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>5.1916</v>
-      </c>
       <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="G43" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -8327,14 +8349,15 @@
         <v>16567</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5.1911</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>86000</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>5.1911</v>
-      </c>
       <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -8345,14 +8368,15 @@
         <v>16500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>5.1515</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>85000</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>5.1515</v>
-      </c>
       <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -8363,14 +8387,15 @@
         <v>16000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>84000</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>5.25</v>
-      </c>
       <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="G46" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -8381,14 +8406,15 @@
         <v>16000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>83000</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>5.1875</v>
-      </c>
       <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="G47" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -8399,14 +8425,15 @@
         <v>16000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>82000</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>5.125</v>
-      </c>
       <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="G48" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -8417,14 +8444,15 @@
         <v>16000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>82000</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>5.125</v>
-      </c>
       <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="G49" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -8435,14 +8463,15 @@
         <v>15500</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>5.2258</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>81000</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>5.2258</v>
-      </c>
       <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="G50" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -8453,14 +8482,15 @@
         <v>15500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5.2258</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>81000</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>5.2258</v>
-      </c>
       <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="G51" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -8471,14 +8501,15 @@
         <v>15500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5.1613</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>80000</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>5.1613</v>
-      </c>
       <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="G52" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -8489,14 +8520,15 @@
         <v>15000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>78000</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>5.2</v>
-      </c>
       <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="G53" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -8507,14 +8539,15 @@
         <v>15000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5.1333</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>77000</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>5.1333</v>
-      </c>
       <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="G54" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -8525,14 +8558,15 @@
         <v>15000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>78000</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>5.2</v>
-      </c>
       <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="G55" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -8543,14 +8577,15 @@
         <v>15000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>78000</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>5.2</v>
-      </c>
       <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="G56" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -8561,14 +8596,15 @@
         <v>15000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5.1333</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>77000</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>5.1333</v>
-      </c>
       <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="G57" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -8579,14 +8615,15 @@
         <v>15000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5.1333</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>77000</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>5.1333</v>
-      </c>
       <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="G58" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -8597,14 +8634,15 @@
         <v>15000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5.1333</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>77000</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>5.1333</v>
-      </c>
       <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="G59" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -8615,14 +8653,15 @@
         <v>14500</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5.2414</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>76000</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>5.2414</v>
-      </c>
       <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="G60" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -8633,14 +8672,15 @@
         <v>14500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5.2414</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>76000</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>5.2414</v>
-      </c>
       <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="G61" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -8651,14 +8691,15 @@
         <v>14000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>5.285699999999999</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>74000</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>5.285699999999999</v>
-      </c>
       <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="G62" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -8669,14 +8710,15 @@
         <v>14000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5.1429</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>72000</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>5.1429</v>
-      </c>
       <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="G63" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -8687,14 +8729,15 @@
         <v>13500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5.1852</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>70000</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>5.1852</v>
-      </c>
       <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="G64" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -8705,14 +8748,15 @@
         <v>13000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5.1538</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>67000</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>5.1538</v>
-      </c>
       <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="G65" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -8723,14 +8767,15 @@
         <v>12500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>5.2</v>
-      </c>
       <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="G66" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -8741,14 +8786,15 @@
         <v>12500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>62000</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>4.96</v>
-      </c>
       <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="G67" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -8759,14 +8805,15 @@
         <v>12000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4.9167</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>59000</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>4.9167</v>
-      </c>
       <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="G68" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -8776,14 +8823,15 @@
         <v>11500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4.9565</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>57000</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>4.9565</v>
-      </c>
       <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="G69" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -8793,14 +8841,15 @@
         <v>11500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4.7826</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>55000</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>4.7826</v>
-      </c>
       <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="G70" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -8810,14 +8859,15 @@
         <v>11000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>4.8182</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>53000</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>4.8182</v>
-      </c>
       <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="G71" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -8827,14 +8877,15 @@
         <v>10500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4.9524</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>52000</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>4.9524</v>
-      </c>
       <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="G72" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -8844,14 +8895,15 @@
         <v>10500</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>4.8571</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>51000</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>4.8571</v>
-      </c>
       <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="G73" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -8861,14 +8913,15 @@
         <v>10500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>50000</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>4.7619</v>
-      </c>
       <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="G74" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -8877,7 +8930,6 @@
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
       <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -8886,7 +8938,6 @@
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
       <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -9196,7 +9247,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9275,14 +9326,17 @@
         <v>3031</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>27.1043</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>82153</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>27.1043</v>
-      </c>
-      <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="F12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -9293,14 +9347,17 @@
         <v>2775</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>29.884</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>82928</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>29.884</v>
-      </c>
-      <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="F13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -9311,14 +9368,17 @@
         <v>3439</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>23.198</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>79778</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>23.198</v>
-      </c>
-      <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="F14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -9329,14 +9389,17 @@
         <v>3259</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>24.5054</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>79863</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>24.5054</v>
-      </c>
-      <c r="F15" s="29" t="inlineStr"/>
-      <c r="G15" s="29" t="inlineStr"/>
-      <c r="H15" s="29" t="n"/>
+      <c r="F15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -9347,14 +9410,17 @@
         <v>3082</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>25.452</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>78443</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>25.452</v>
-      </c>
-      <c r="F16" s="29" t="inlineStr"/>
-      <c r="G16" s="29" t="inlineStr"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="F16" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -9365,14 +9431,17 @@
         <v>3329</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>22.6606</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>75437</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>22.6606</v>
-      </c>
-      <c r="F17" s="29" t="inlineStr"/>
-      <c r="G17" s="29" t="inlineStr"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="F17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -9383,14 +9452,17 @@
         <v>10966</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>7.0328</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>77122</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>7.0328</v>
-      </c>
-      <c r="F18" s="29" t="inlineStr"/>
-      <c r="G18" s="29" t="inlineStr"/>
-      <c r="H18" s="29" t="n"/>
+      <c r="F18" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -9401,14 +9473,17 @@
         <v>11145</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6.657</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>74192</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="F19" s="29" t="inlineStr"/>
-      <c r="G19" s="29" t="inlineStr"/>
-      <c r="H19" s="29" t="n"/>
+      <c r="F19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -9419,14 +9494,17 @@
         <v>10517</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.5926</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>69334</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>6.5926</v>
-      </c>
-      <c r="F20" s="29" t="inlineStr"/>
-      <c r="G20" s="29" t="inlineStr"/>
-      <c r="H20" s="29" t="n"/>
+      <c r="F20" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -9437,14 +9515,17 @@
         <v>7947</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>7.9123</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>62879</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>7.9123</v>
-      </c>
-      <c r="F21" s="29" t="inlineStr"/>
-      <c r="G21" s="29" t="inlineStr"/>
-      <c r="H21" s="29" t="n"/>
+      <c r="F21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -9455,14 +9536,17 @@
         <v>8077</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>9.2361</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>74600</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>9.2361</v>
-      </c>
-      <c r="F22" s="29" t="inlineStr"/>
-      <c r="G22" s="29" t="inlineStr"/>
-      <c r="H22" s="29" t="n"/>
+      <c r="F22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -9473,14 +9557,17 @@
         <v>8153</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>9.672499999999999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>78860</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>9.672499999999999</v>
-      </c>
-      <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
-      <c r="H23" s="29" t="n"/>
+      <c r="F23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -9491,14 +9578,17 @@
         <v>8183</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>9.366100000000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>76643</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>9.366100000000001</v>
-      </c>
-      <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="inlineStr"/>
-      <c r="H24" s="29" t="n"/>
+      <c r="F24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -9509,14 +9599,17 @@
         <v>8255</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.097</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>75096</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>9.097</v>
-      </c>
-      <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="F25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -9527,14 +9620,17 @@
         <v>7970</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8.530200000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>67986</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>8.530200000000001</v>
-      </c>
-      <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="F26" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -9545,14 +9641,17 @@
         <v>7660</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>8.5039</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>65140</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>8.5039</v>
-      </c>
-      <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="F27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -9563,14 +9662,17 @@
         <v>6980</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>8.8345</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>61665</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>8.8345</v>
-      </c>
-      <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="F28" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -9581,14 +9683,17 @@
         <v>6760</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>7.6269</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>51558</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>7.6269</v>
-      </c>
-      <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="F29" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -9599,14 +9704,17 @@
         <v>7060</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>7.7904</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>55000</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>7.7904</v>
-      </c>
-      <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="F30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -9617,14 +9725,17 @@
         <v>7093</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>7.0492</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>50000</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>7.0492</v>
-      </c>
-      <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="F31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -9635,14 +9746,17 @@
         <v>7259</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7.5768</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>55000</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>7.5768</v>
-      </c>
-      <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="F32" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -9653,14 +9767,17 @@
         <v>7093</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>7.7541</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>55000</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>7.7541</v>
-      </c>
-      <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="F33" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -9671,14 +9788,17 @@
         <v>7359</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>7.4738</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>55000</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>7.4738</v>
-      </c>
-      <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="F34" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -9689,14 +9809,17 @@
         <v>8125</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7.384600000000001</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>60000</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>7.384600000000001</v>
-      </c>
-      <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="F35" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -9707,14 +9830,17 @@
         <v>8075</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8.0495</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>8.0495</v>
-      </c>
-      <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="F36" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -9725,14 +9851,17 @@
         <v>8242</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>7.8864</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>65000</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>7.8864</v>
-      </c>
-      <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="F37" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -9743,14 +9872,17 @@
         <v>8633</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.4559</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>73000</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>8.4559</v>
-      </c>
-      <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="F38" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -9761,14 +9893,17 @@
         <v>8833</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8.377700000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>74000</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>8.377700000000001</v>
-      </c>
-      <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="F39" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -9779,14 +9914,17 @@
         <v>9043</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.293700000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>75000</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>8.293700000000001</v>
-      </c>
-      <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="F40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -9797,14 +9935,17 @@
         <v>9133</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8.5405</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>78000</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>8.5405</v>
-      </c>
-      <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="F41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -9815,14 +9956,17 @@
         <v>9233</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8.231299999999999</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>76000</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>8.231299999999999</v>
-      </c>
-      <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="F42" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -9833,14 +9977,17 @@
         <v>9267</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.6328</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>80000</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>8.6328</v>
-      </c>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="F43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -9851,14 +9998,17 @@
         <v>9483</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>8.6471</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>82000</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>8.6471</v>
-      </c>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -9869,14 +10019,17 @@
         <v>9567</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8.3621</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>80000</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>8.3621</v>
-      </c>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -9887,14 +10040,17 @@
         <v>9867</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>8.614600000000001</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>85000</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>8.614600000000001</v>
-      </c>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="F46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -9905,14 +10061,17 @@
         <v>10173</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>8.8469</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>8.8469</v>
-      </c>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="F47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -9923,14 +10082,17 @@
         <v>10433</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>8.1472</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>85000</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>8.1472</v>
-      </c>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="F48" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -9941,14 +10103,17 @@
         <v>10500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8.0952</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>85000</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>8.0952</v>
-      </c>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="F49" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -9959,14 +10124,17 @@
         <v>11000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8.181800000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>8.181800000000001</v>
-      </c>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="F50" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -9977,14 +10145,17 @@
         <v>11333</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7.5002</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>85000</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>7.5002</v>
-      </c>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="F51" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -9995,14 +10166,17 @@
         <v>11667</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8.314</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>97000</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>8.314</v>
-      </c>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="F52" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -10013,14 +10187,17 @@
         <v>11667</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7.7141</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>7.7141</v>
-      </c>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="F53" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -10031,14 +10208,17 @@
         <v>11283</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>7.9766</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>7.9766</v>
-      </c>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="F54" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -10049,14 +10229,17 @@
         <v>11167</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8.507200000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>95000</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>8.507200000000001</v>
-      </c>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="F55" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -10067,14 +10250,17 @@
         <v>12567</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7.400300000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>93000</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>7.400300000000001</v>
-      </c>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="F56" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -10085,14 +10271,17 @@
         <v>12583</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>7.390899999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>93000</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>7.390899999999999</v>
-      </c>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="F57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -10103,14 +10292,17 @@
         <v>12667</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7.1051</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>7.1051</v>
-      </c>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="F58" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -10121,14 +10313,17 @@
         <v>12667</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8.131399999999999</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>103000</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>8.131399999999999</v>
-      </c>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="F59" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -10139,14 +10334,17 @@
         <v>12333</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>7.2975</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>7.2975</v>
-      </c>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="F60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -10157,14 +10355,17 @@
         <v>12333</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>7.2975</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>7.2975</v>
-      </c>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="F61" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -10175,14 +10376,17 @@
         <v>12333</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7.2975</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>7.2975</v>
-      </c>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="F62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -10193,14 +10397,17 @@
         <v>12333</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7.8408</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>96700</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>7.8408</v>
-      </c>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="F63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -10211,14 +10418,17 @@
         <v>12477</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>8.1036</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>101109</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>8.1036</v>
-      </c>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="F64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -10229,14 +10439,17 @@
         <v>12543</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.450899999999999</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>106000</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>8.450899999999999</v>
-      </c>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="F65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -10247,14 +10460,17 @@
         <v>11560</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.391</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>97000</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>8.391</v>
-      </c>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="F66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -10265,14 +10481,17 @@
         <v>12447</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.5161</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>106000</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>8.5161</v>
-      </c>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="F67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -10283,14 +10502,17 @@
         <v>12107</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.2597</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>100000</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>8.2597</v>
-      </c>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="F68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -10300,14 +10522,17 @@
         <v>12213</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>7.6967</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>94000</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>7.6967</v>
-      </c>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="F69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -10317,14 +10542,17 @@
         <v>12183</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>7.3873</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>90000</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>7.3873</v>
-      </c>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="F70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -10334,14 +10562,17 @@
         <v>12313</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>7.0657</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>87000</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>7.0657</v>
-      </c>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="F71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -10351,14 +10582,17 @@
         <v>12673</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6.0507</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>76680</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>6.0507</v>
-      </c>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="F72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -10368,14 +10602,17 @@
         <v>12357</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6.580100000000001</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>81310</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>6.580100000000001</v>
-      </c>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="F73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -10385,14 +10622,17 @@
         <v>12257</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>7.000100000000001</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>85800</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>7.000100000000001</v>
-      </c>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="F74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -10400,8 +10640,6 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -10409,8 +10647,6 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -10720,7 +10956,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10799,14 +11035,17 @@
         <v>20400</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3.9363</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>80300</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>3.9363</v>
-      </c>
-      <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="F12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -10817,14 +11056,17 @@
         <v>21200</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4.0189</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>85200</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>4.0189</v>
-      </c>
-      <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="F13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -10835,14 +11077,17 @@
         <v>21600</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>4.0556</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>87600</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>4.0556</v>
-      </c>
-      <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="F14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -10853,14 +11098,17 @@
         <v>22300</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3.9507</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>88100</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>3.9507</v>
-      </c>
-      <c r="F15" s="29" t="inlineStr"/>
-      <c r="G15" s="29" t="inlineStr"/>
-      <c r="H15" s="29" t="n"/>
+      <c r="F15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -10871,14 +11119,17 @@
         <v>14280</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3.7829</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>54020</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>3.7829</v>
-      </c>
-      <c r="F16" s="29" t="inlineStr"/>
-      <c r="G16" s="29" t="inlineStr"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="F16" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -10889,14 +11140,17 @@
         <v>14240</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>4.6334</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>65980</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>4.6334</v>
-      </c>
-      <c r="F17" s="29" t="inlineStr"/>
-      <c r="G17" s="29" t="inlineStr"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="F17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -10907,14 +11161,17 @@
         <v>12615</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>4.232399999999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>53392</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>4.232399999999999</v>
-      </c>
-      <c r="F18" s="29" t="inlineStr"/>
-      <c r="G18" s="29" t="inlineStr"/>
-      <c r="H18" s="29" t="n"/>
+      <c r="F18" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -10925,14 +11182,17 @@
         <v>12471</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>4.339300000000001</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>54115</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>4.339300000000001</v>
-      </c>
-      <c r="F19" s="29" t="inlineStr"/>
-      <c r="G19" s="29" t="inlineStr"/>
-      <c r="H19" s="29" t="n"/>
+      <c r="F19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -10943,14 +11203,17 @@
         <v>8735</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4.8034</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>41956</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>4.8034</v>
-      </c>
-      <c r="F20" s="29" t="inlineStr"/>
-      <c r="G20" s="29" t="inlineStr"/>
-      <c r="H20" s="29" t="n"/>
+      <c r="F20" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -10961,14 +11224,17 @@
         <v>9507</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>4.9842</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>47385</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>4.9842</v>
-      </c>
-      <c r="F21" s="29" t="inlineStr"/>
-      <c r="G21" s="29" t="inlineStr"/>
-      <c r="H21" s="29" t="n"/>
+      <c r="F21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -10979,14 +11245,17 @@
         <v>10799</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5.727600000000001</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>61852</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>5.727600000000001</v>
-      </c>
-      <c r="F22" s="29" t="inlineStr"/>
-      <c r="G22" s="29" t="inlineStr"/>
-      <c r="H22" s="29" t="n"/>
+      <c r="F22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -10997,14 +11266,17 @@
         <v>10198</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.2793</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>53838</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>5.2793</v>
-      </c>
-      <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
-      <c r="H23" s="29" t="n"/>
+      <c r="F23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -11015,14 +11287,17 @@
         <v>9418</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5.3704</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>50578</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>5.3704</v>
-      </c>
-      <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="inlineStr"/>
-      <c r="H24" s="29" t="n"/>
+      <c r="F24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -11033,14 +11308,17 @@
         <v>13447</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4.2415</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>57035</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>4.2415</v>
-      </c>
-      <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="F25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -11051,14 +11329,17 @@
         <v>5864</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6.6792</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>39167</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>6.6792</v>
-      </c>
-      <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="F26" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -11069,14 +11350,17 @@
         <v>6373</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>7.341399999999999</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>46787</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>7.341399999999999</v>
-      </c>
-      <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="F27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -11087,14 +11371,17 @@
         <v>6885</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5.6208</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>38699</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>5.6208</v>
-      </c>
-      <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="F28" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -11105,14 +11392,17 @@
         <v>5254</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>7.7526</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>40732</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>7.7526</v>
-      </c>
-      <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="F29" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -11123,14 +11413,17 @@
         <v>5643</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6.8145</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>38454</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>6.8145</v>
-      </c>
-      <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="F30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -11141,14 +11434,17 @@
         <v>5082</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>7.653899999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>38897</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>7.653899999999999</v>
-      </c>
-      <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="F31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -11159,14 +11455,17 @@
         <v>5144</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7.8532</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>40397</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>7.8532</v>
-      </c>
-      <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="F32" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -11177,14 +11476,17 @@
         <v>5901</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5.711399999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>33703</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>5.711399999999999</v>
-      </c>
-      <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="F33" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -11195,14 +11497,17 @@
         <v>4750</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6.8421</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>32500</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>6.8421</v>
-      </c>
-      <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="F34" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -11213,14 +11518,17 @@
         <v>4500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6.6667</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>30000</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>6.6667</v>
-      </c>
-      <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="F35" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -11231,14 +11539,17 @@
         <v>3250</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8.615399999999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>28000</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>8.615399999999999</v>
-      </c>
-      <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="F36" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -11249,14 +11560,17 @@
         <v>2779</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>7.7883</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>21645.64</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>7.7883</v>
-      </c>
-      <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="F37" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -11267,14 +11581,17 @@
         <v>2134</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.539800000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16089.71</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>7.539800000000001</v>
-      </c>
-      <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="F38" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -11285,14 +11602,17 @@
         <v>1566</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7.393</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11575.38</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>7.393</v>
-      </c>
-      <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="F39" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -11303,14 +11623,17 @@
         <v>918</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7.442699999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>6836.1</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>7.442699999999999</v>
-      </c>
-      <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="F40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -11320,13 +11643,16 @@
       <c r="C41" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="29" t="inlineStr"/>
-      <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="D41" s="29" t="inlineStr"/>
+      <c r="E41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -11336,13 +11662,16 @@
       <c r="C42" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="29" t="inlineStr"/>
-      <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="D42" s="29" t="inlineStr"/>
+      <c r="E42" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -11352,9 +11681,12 @@
       <c r="C43" s="29" t="inlineStr"/>
       <c r="D43" s="29" t="inlineStr"/>
       <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="F43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -11364,9 +11696,12 @@
       <c r="C44" s="29" t="inlineStr"/>
       <c r="D44" s="29" t="inlineStr"/>
       <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -11376,9 +11711,12 @@
       <c r="C45" s="29" t="inlineStr"/>
       <c r="D45" s="29" t="inlineStr"/>
       <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -11388,9 +11726,12 @@
       <c r="C46" s="29" t="inlineStr"/>
       <c r="D46" s="29" t="inlineStr"/>
       <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="F46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -11400,9 +11741,12 @@
       <c r="C47" s="29" t="inlineStr"/>
       <c r="D47" s="29" t="inlineStr"/>
       <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="F47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -11412,9 +11756,12 @@
       <c r="C48" s="29" t="inlineStr"/>
       <c r="D48" s="29" t="inlineStr"/>
       <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="F48" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -11424,9 +11771,12 @@
       <c r="C49" s="29" t="inlineStr"/>
       <c r="D49" s="29" t="inlineStr"/>
       <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="F49" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -11436,9 +11786,12 @@
       <c r="C50" s="29" t="inlineStr"/>
       <c r="D50" s="29" t="inlineStr"/>
       <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="F50" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -11448,9 +11801,12 @@
       <c r="C51" s="29" t="inlineStr"/>
       <c r="D51" s="29" t="inlineStr"/>
       <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="F51" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -11460,9 +11816,12 @@
       <c r="C52" s="29" t="inlineStr"/>
       <c r="D52" s="29" t="inlineStr"/>
       <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="F52" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -11472,9 +11831,12 @@
       <c r="C53" s="29" t="inlineStr"/>
       <c r="D53" s="29" t="inlineStr"/>
       <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="F53" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -11484,9 +11846,12 @@
       <c r="C54" s="29" t="inlineStr"/>
       <c r="D54" s="29" t="inlineStr"/>
       <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="F54" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -11496,9 +11861,12 @@
       <c r="C55" s="29" t="inlineStr"/>
       <c r="D55" s="29" t="inlineStr"/>
       <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="F55" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -11508,9 +11876,12 @@
       <c r="C56" s="29" t="inlineStr"/>
       <c r="D56" s="29" t="inlineStr"/>
       <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="F56" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -11520,9 +11891,12 @@
       <c r="C57" s="29" t="inlineStr"/>
       <c r="D57" s="29" t="inlineStr"/>
       <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="F57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -11532,9 +11906,12 @@
       <c r="C58" s="29" t="inlineStr"/>
       <c r="D58" s="29" t="inlineStr"/>
       <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="F58" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -11544,9 +11921,12 @@
       <c r="C59" s="29" t="inlineStr"/>
       <c r="D59" s="29" t="inlineStr"/>
       <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="F59" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -11556,9 +11936,12 @@
       <c r="C60" s="29" t="inlineStr"/>
       <c r="D60" s="29" t="inlineStr"/>
       <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="F60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -11568,9 +11951,12 @@
       <c r="C61" s="29" t="inlineStr"/>
       <c r="D61" s="29" t="inlineStr"/>
       <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="F61" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -11580,9 +11966,12 @@
       <c r="C62" s="29" t="inlineStr"/>
       <c r="D62" s="29" t="inlineStr"/>
       <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="F62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -11592,9 +11981,12 @@
       <c r="C63" s="29" t="inlineStr"/>
       <c r="D63" s="29" t="inlineStr"/>
       <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="F63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -11604,9 +11996,12 @@
       <c r="C64" s="29" t="inlineStr"/>
       <c r="D64" s="29" t="inlineStr"/>
       <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="F64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -11616,9 +12011,12 @@
       <c r="C65" s="29" t="inlineStr"/>
       <c r="D65" s="29" t="inlineStr"/>
       <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="F65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -11628,9 +12026,12 @@
       <c r="C66" s="29" t="inlineStr"/>
       <c r="D66" s="29" t="inlineStr"/>
       <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="F66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -11640,9 +12041,12 @@
       <c r="C67" s="29" t="inlineStr"/>
       <c r="D67" s="29" t="inlineStr"/>
       <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="F67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -11652,9 +12056,12 @@
       <c r="C68" s="29" t="inlineStr"/>
       <c r="D68" s="29" t="inlineStr"/>
       <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="F68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -11663,9 +12070,12 @@
       <c r="C69" s="29" t="inlineStr"/>
       <c r="D69" s="29" t="inlineStr"/>
       <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="F69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -11674,9 +12084,12 @@
       <c r="C70" s="29" t="inlineStr"/>
       <c r="D70" s="29" t="inlineStr"/>
       <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="F70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -11685,9 +12098,12 @@
       <c r="C71" s="29" t="inlineStr"/>
       <c r="D71" s="29" t="inlineStr"/>
       <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="F71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -11696,9 +12112,12 @@
       <c r="C72" s="29" t="inlineStr"/>
       <c r="D72" s="29" t="inlineStr"/>
       <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="F72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -11707,9 +12126,12 @@
       <c r="C73" s="29" t="inlineStr"/>
       <c r="D73" s="29" t="inlineStr"/>
       <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="F73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -11718,9 +12140,12 @@
       <c r="C74" s="29" t="inlineStr"/>
       <c r="D74" s="29" t="inlineStr"/>
       <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="F74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -11728,8 +12153,6 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -11737,8 +12160,6 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>

--- a/Resultados/Mercado mundial - Otras bayas y frutos del género vaccinium n.c.p..xlsx
+++ b/Resultados/Mercado mundial - Otras bayas y frutos del género vaccinium n.c.p..xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Viet Nam" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Papua Nueva Guinea" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Polonia" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mexico" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Viet Nam" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Papua New Guinea" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Türkiye" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Poland" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,6 +307,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +515,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +843,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +925,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Papua Nueva Guinea'!$B$12:$B$74</f>
+              <f>'Papua New Guinea'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Papua Nueva Guinea'!$C$12:$C$74</f>
+              <f>'Papua New Guinea'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1007,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Polonia'!$B$12:$B$74</f>
+              <f>'Poland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Polonia'!$C$12:$C$74</f>
+              <f>'Poland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>150830</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1042134.58</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.9093</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1042134.58</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>122450.76</v>
@@ -2160,10 +2161,10 @@
         <v>148129</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1043990.14</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>7.047899999999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1043990.14</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>151612.13</v>
@@ -2182,10 +2183,10 @@
         <v>146906</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1029895.75</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>7.0106</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1029895.75</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>145907.91</v>
@@ -2204,10 +2205,10 @@
         <v>152693</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1014604.06</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6.644699999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1014604.06</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>127325.59</v>
@@ -2226,10 +2227,10 @@
         <v>149313</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1048519.66</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>7.0223</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1048519.66</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>119437.79</v>
@@ -2248,10 +2249,10 @@
         <v>142153</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1022545.01</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>7.1933</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1022545.01</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>104112.89</v>
@@ -2270,10 +2271,10 @@
         <v>152509</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>998780.0600000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.549</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>998780.0600000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>89393.50999999999</v>
@@ -2292,10 +2293,10 @@
         <v>133817</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>938624.5699999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7.0142</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>938624.5699999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>83822.86</v>
@@ -2314,10 +2315,10 @@
         <v>120544</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>774625.39</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.4261</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>774625.39</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>73695.71000000001</v>
@@ -2336,10 +2337,10 @@
         <v>121311</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>831546.37</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6.8547</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>831546.37</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>58833.33</v>
@@ -2358,10 +2359,10 @@
         <v>119409</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>827688.36</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>6.9315</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>827688.36</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -2376,10 +2377,10 @@
         <v>117748</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>836475.51</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7.104</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>836475.51</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -2394,10 +2395,10 @@
         <v>115313</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>823551.13</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>7.1418</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>823551.13</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -2412,10 +2413,10 @@
         <v>113311</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>751016.9</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6.627899999999999</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>751016.9</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -2430,10 +2431,10 @@
         <v>104486</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>796425</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>7.6223</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>796425</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -2448,10 +2449,10 @@
         <v>105624</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>811211.46</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>7.6802</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>811211.46</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -2466,10 +2467,10 @@
         <v>102984</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>728745.58</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>7.0763</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>728745.58</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -2484,10 +2485,10 @@
         <v>100804</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>689938.65</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6.8443</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>689938.65</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -2502,10 +2503,10 @@
         <v>97614</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>689313.47</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>7.0616</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>689313.47</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -2520,10 +2521,10 @@
         <v>93161</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>639542.05</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6.8649</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>639542.05</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -2538,10 +2539,10 @@
         <v>93934</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>650131.23</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>6.9211</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>650131.23</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -2556,10 +2557,10 @@
         <v>84329</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>553999.58</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6.5695</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>553999.58</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -2574,10 +2575,10 @@
         <v>82258</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>550762.0600000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6.6955</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>550762.0600000001</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -2592,10 +2593,10 @@
         <v>78630</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>526985.17</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6.702100000000001</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>526985.17</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -2610,10 +2611,10 @@
         <v>76645</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>493205.87</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6.4349</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>493205.87</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -2628,10 +2629,10 @@
         <v>75357</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>486703.56</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6.458699999999999</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>486703.56</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -2646,10 +2647,10 @@
         <v>72938</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>494041.59</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>6.7735</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>494041.59</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -2664,10 +2665,10 @@
         <v>74403</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>500521.75</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6.7272</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>500521.75</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -2682,10 +2683,10 @@
         <v>75493</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>519023.28</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>6.875100000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>519023.28</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -2700,10 +2701,10 @@
         <v>74558</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>519025.84</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6.961399999999999</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>519025.84</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -2718,10 +2719,10 @@
         <v>71145</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>509321.53</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>7.1589</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>509321.53</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -2736,10 +2737,10 @@
         <v>66643</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>514072.9</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7.7138</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>514072.9</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -2754,10 +2755,10 @@
         <v>73021</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>462955.86</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>6.34</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>462955.86</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -2772,10 +2773,10 @@
         <v>62192</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>421904.76</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6.7839</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>421904.76</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -2790,10 +2791,10 @@
         <v>58364</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>375685</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6.4369</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>375685</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -2808,10 +2809,10 @@
         <v>53960</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>353824</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>6.5572</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>353824</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -2826,10 +2827,10 @@
         <v>56690</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>359719</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6.3454</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>359719</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -2844,10 +2845,10 @@
         <v>54936</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>349974</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6.3706</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>349974</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -2862,10 +2863,10 @@
         <v>55398</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>355280</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6.4132</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>355280</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -2880,10 +2881,10 @@
         <v>55662</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>383349</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>6.8871</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>383349</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -2898,10 +2899,10 @@
         <v>49774</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>382779</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>7.690300000000001</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>382779</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -2916,10 +2917,10 @@
         <v>52803</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>374543</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7.0932</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>374543</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -2934,10 +2935,10 @@
         <v>49000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>366346</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>7.4764</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>366346</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -2952,10 +2953,10 @@
         <v>49986</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>367133</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>7.3447</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>367133</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -2970,10 +2971,10 @@
         <v>49044</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>347523</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7.0859</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>347523</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -2988,10 +2989,10 @@
         <v>49465</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>340255</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>6.8787</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>340255</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -3006,10 +3007,10 @@
         <v>48147</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>304596</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>6.3264</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>304596</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -3024,10 +3025,10 @@
         <v>47633</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>325928</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>6.8425</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>325928</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -3042,10 +3043,10 @@
         <v>46388</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>314563</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>6.7811</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>314563</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -3060,10 +3061,10 @@
         <v>46486</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>312641</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>6.7255</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>312641</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -3078,10 +3079,10 @@
         <v>44625</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>296202</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6.6376</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>296202</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -3096,10 +3097,10 @@
         <v>45231</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>308398</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>6.8183</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>308398</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -3114,10 +3115,10 @@
         <v>48357</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>307038</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6.349399999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>307038</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -3132,10 +3133,10 @@
         <v>43190</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>305959</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>7.084</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>305959</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -3150,10 +3151,10 @@
         <v>40855</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>300419</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>7.3533</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>300419</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -3168,10 +3169,10 @@
         <v>41318</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>306145</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7.4095</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>306145</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -3186,10 +3187,10 @@
         <v>40048</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>296345</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7.3997</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>296345</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -3203,10 +3204,10 @@
         <v>39954</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>292712</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>7.3262</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>292712</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -3220,10 +3221,10 @@
         <v>41003</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>329476</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8.035399999999999</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>329476</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -3237,10 +3238,10 @@
         <v>40935</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>323869</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>7.9118</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>323869</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -3254,10 +3255,10 @@
         <v>39818</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>309462</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>7.7719</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>309462</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -3271,10 +3272,10 @@
         <v>38362</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>298619</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>7.7842</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>298619</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -3288,10 +3289,10 @@
         <v>38048</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>305559</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8.030899999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>305559</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -3574,8 +3575,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3670,7 +3671,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3698,7 +3699,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Papua Nueva Guinea</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3726,7 +3727,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3754,7 +3755,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3768,7 +3769,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Azerbaiyán</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3782,7 +3783,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Afganistán</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3796,7 +3797,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -3904,7 +3905,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4003,7 +4004,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4017,7 +4018,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4031,7 +4032,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4045,7 +4046,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Sudáfrica</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4059,7 +4060,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, RAE de Hong Kong</t>
+          <t>China, Hong Kong SAR</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4101,7 +4102,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4325,8 +4326,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4421,7 +4422,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4435,7 +4436,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, RAE de Hong Kong</t>
+          <t>China, Hong Kong SAR</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4449,7 +4450,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4463,7 +4464,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4477,7 +4478,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4491,7 +4492,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4505,7 +4506,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4519,7 +4520,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4533,7 +4534,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Singapur</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4547,7 +4548,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Arabia Saudita</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4561,35 +4562,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>33939.81</v>
+        <v>563.97</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2771710849324251</v>
+        <v>0.004605688033295996</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>33375.84</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.2725653968991291</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>122450.76</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4599,58 +4608,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4720,7 +4730,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -4799,10 +4809,10 @@
         <v>10885</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>238122.15</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>21.8755</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>238122.15</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>563.97</v>
@@ -4821,10 +4831,10 @@
         <v>9661</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>222608.25</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>23.042</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>222608.25</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>616.16</v>
@@ -4843,10 +4853,10 @@
         <v>9187</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>211357.51</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>23.0059</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>211357.51</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>373.85</v>
@@ -4865,10 +4875,10 @@
         <v>9554</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>215923.73</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.6007</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>215923.73</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>108.69</v>
@@ -4887,10 +4897,10 @@
         <v>12900</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>298024.07</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>23.1034</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>298024.07</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>297.56</v>
@@ -4909,10 +4919,10 @@
         <v>13164</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>287124.81</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>21.8119</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>287124.81</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>600.4</v>
@@ -4931,10 +4941,10 @@
         <v>12561</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>270399.37</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>21.5268</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>270399.37</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>538.1</v>
@@ -4953,10 +4963,10 @@
         <v>12963</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>248511.59</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>19.1703</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>248511.59</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>469.21</v>
@@ -4975,10 +4985,10 @@
         <v>10006</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>123090.56</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>12.3011</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>123090.56</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>298.97</v>
@@ -4997,10 +5007,10 @@
         <v>12479</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>152921.52</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>12.2548</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>152921.52</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>320.85</v>
@@ -5019,10 +5029,10 @@
         <v>11889</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>128976</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>10.8483</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>128976</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -5037,10 +5047,10 @@
         <v>11422</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>139803</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>12.2398</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>139803</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -5055,10 +5065,10 @@
         <v>10724</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>135563</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>12.6411</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>135563</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -5073,10 +5083,10 @@
         <v>6392</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>61558</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.6305</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>61558</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -5091,10 +5101,10 @@
         <v>6666</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>115961</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>17.3959</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>115961</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -5109,10 +5119,10 @@
         <v>6460</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>118422</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>18.3316</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>118422</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -5127,10 +5137,10 @@
         <v>3237</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>44136</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>13.6348</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>44136</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -5145,10 +5155,10 @@
         <v>3047</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>42497</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>13.9472</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>42497</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -5163,10 +5173,10 @@
         <v>2654</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>35135</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>13.2385</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>35135</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -5181,10 +5191,10 @@
         <v>2140</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>26697</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>12.4752</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>26697</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -5199,10 +5209,10 @@
         <v>2001</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>27645</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>13.8156</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>27645</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -5217,10 +5227,10 @@
         <v>1042</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>11117</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>10.6689</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>11117</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -5235,10 +5245,10 @@
         <v>990</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>11570</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>11.6869</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>11570</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -5253,10 +5263,10 @@
         <v>1153</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>13534</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>11.7381</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>13534</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -5271,10 +5281,10 @@
         <v>1046</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>11498</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>10.9924</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>11498</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -5289,10 +5299,10 @@
         <v>923</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>10646</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>11.5341</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>10646</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -5307,10 +5317,10 @@
         <v>750</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5604</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.472</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>5604</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -5325,10 +5335,10 @@
         <v>698</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>9765</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>13.99</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>9765</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -5343,10 +5353,10 @@
         <v>551</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7574</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>13.7459</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>7574</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -5361,10 +5371,10 @@
         <v>535</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5480</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.243</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5480</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -5379,10 +5389,10 @@
         <v>225</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3996</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>17.76</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3996</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -5397,10 +5407,10 @@
         <v>190</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3260</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>17.1579</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3260</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -5415,10 +5425,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>8</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>16</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -5433,10 +5443,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7.5</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>15</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -6110,7 +6120,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6189,10 +6199,10 @@
         <v>12038</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>121448.61</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>10.0889</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>121448.61</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>18.64</v>
@@ -6211,10 +6221,10 @@
         <v>12062</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>121626.29</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>10.0835</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>121626.29</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>18.06</v>
@@ -6233,10 +6243,10 @@
         <v>12043</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>121255.97</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>10.069</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>121255.97</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="inlineStr"/>
@@ -6251,10 +6261,10 @@
         <v>12009</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>121463.58</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>10.1143</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>121463.58</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="inlineStr"/>
@@ -6269,10 +6279,10 @@
         <v>12134</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>122159.31</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>10.0675</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>122159.31</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="inlineStr"/>
@@ -6287,10 +6297,10 @@
         <v>11984</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>120145.01</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>10.0251</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>120145.01</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="inlineStr"/>
@@ -6305,10 +6315,10 @@
         <v>12720</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>127874.2</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>10.0528</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>127874.2</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="inlineStr"/>
@@ -6323,10 +6333,10 @@
         <v>13046</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>130579.76</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>10.0095</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>130579.76</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="inlineStr"/>
@@ -6341,10 +6351,10 @@
         <v>10187</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>101981.08</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>10.0104</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>101981.08</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="inlineStr"/>
@@ -6359,10 +6369,10 @@
         <v>14091</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>140641.31</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>9.980600000000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>140641.31</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="inlineStr"/>
@@ -6377,10 +6387,10 @@
         <v>14858</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>149116.9</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>10.0363</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>149116.9</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -6395,10 +6405,10 @@
         <v>14500</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>148000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>10.2069</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>148000</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -6413,10 +6423,10 @@
         <v>14593</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>143807.21</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>9.8546</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>143807.21</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -6431,10 +6441,10 @@
         <v>14430</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>140768.31</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.7552</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>140768.31</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -6449,10 +6459,10 @@
         <v>14200</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>138000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>9.718299999999999</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>138000</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -6467,10 +6477,10 @@
         <v>14000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>137000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9.7857</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>137000</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -6485,10 +6495,10 @@
         <v>14000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>135000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9.642899999999999</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>135000</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -6503,10 +6513,10 @@
         <v>13500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>132000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9.777799999999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>132000</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -6521,10 +6531,10 @@
         <v>13500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>129366.72</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>9.582700000000001</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>129366.72</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -6539,10 +6549,10 @@
         <v>13000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>123000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9.461499999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>123000</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -6557,10 +6567,10 @@
         <v>13200</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>9.0909</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -6575,10 +6585,10 @@
         <v>12780</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>119395.65</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>9.3421</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>119395.65</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -6593,10 +6603,10 @@
         <v>12500</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>118800</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>9.504</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>118800</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -6611,10 +6621,10 @@
         <v>10500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>99500</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>9.4762</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>99500</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -6629,10 +6639,10 @@
         <v>9600</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>81700</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8.510399999999999</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>81700</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -6647,10 +6657,10 @@
         <v>10000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -6665,10 +6675,10 @@
         <v>11000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>9.0909</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -6683,10 +6693,10 @@
         <v>13000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>9.230799999999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -6701,10 +6711,10 @@
         <v>14000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>9.2857</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>130000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -6719,10 +6729,10 @@
         <v>15000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>135000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>9</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>135000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -6737,10 +6747,10 @@
         <v>14000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>140000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -6755,10 +6765,10 @@
         <v>12000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>142800</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>11.9</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>142800</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -6773,10 +6783,10 @@
         <v>10000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>103500</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>10.35</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>103500</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -6791,10 +6801,10 @@
         <v>11000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>100200</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>9.1091</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>100200</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -6809,10 +6819,10 @@
         <v>6500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>56900</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>8.7538</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>56900</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -6827,10 +6837,10 @@
         <v>5700</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>45700</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>8.0175</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>45700</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -6845,10 +6855,10 @@
         <v>6700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>53900</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>8.0448</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>53900</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -6863,10 +6873,10 @@
         <v>6700</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>56900</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8.4925</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>56900</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -6881,10 +6891,10 @@
         <v>6900</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>55800</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8.087</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>55800</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -6899,10 +6909,10 @@
         <v>9000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>72200</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>8.0222</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>72200</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -6917,10 +6927,10 @@
         <v>8000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8.5</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>68000</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -6935,10 +6945,10 @@
         <v>9000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>6.6667</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>60000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -6953,10 +6963,10 @@
         <v>6000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9.166700000000001</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>55000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -6971,10 +6981,10 @@
         <v>7000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>6.4286</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>45000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -6989,10 +6999,10 @@
         <v>6500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>6.1538</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>40000</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -7007,10 +7017,10 @@
         <v>6500</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4.615399999999999</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>30000</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -7025,10 +7035,10 @@
         <v>6000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3.3333</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>20000</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -7043,10 +7053,10 @@
         <v>5500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.7273</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>15000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -7061,10 +7071,10 @@
         <v>5000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.2</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -7079,10 +7089,10 @@
         <v>4500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -7097,10 +7107,10 @@
         <v>4200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1.6667</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7000</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -7115,10 +7125,10 @@
         <v>4000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.25</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5000</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -7133,10 +7143,10 @@
         <v>3500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.8571</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3000</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -7151,10 +7161,10 @@
         <v>3000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1575</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.525</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1575</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -7169,10 +7179,10 @@
         <v>2000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2560</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.28</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2560</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -7187,10 +7197,10 @@
         <v>1500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2945</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1.9633</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2945</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -7205,10 +7215,10 @@
         <v>1100</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4245</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3.8591</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4245</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -7222,10 +7232,10 @@
         <v>1900</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>7340</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3.8632</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>7340</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -7239,10 +7249,10 @@
         <v>3000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>11730</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3.91</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>11730</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -7256,10 +7266,10 @@
         <v>3700</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>14210</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3.8405</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>14210</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -7273,10 +7283,10 @@
         <v>2800</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10810</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3.8607</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10810</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -7290,10 +7300,10 @@
         <v>1700</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6490</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3.8176</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6490</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -7307,10 +7317,10 @@
         <v>1700</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6435</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3.7853</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6435</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -7642,7 +7652,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7721,17 +7731,16 @@
         <v>21871</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>109950.2</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5.0273</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>109950.2</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1.39</v>
       </c>
-      <c r="G12" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -7742,17 +7751,16 @@
         <v>21781</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>109623.91</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5.033</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>109623.91</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="G13" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -7763,17 +7771,16 @@
         <v>21692</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>109297.63</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5.0387</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>109297.63</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>12.2</v>
       </c>
-      <c r="G14" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -7784,17 +7791,16 @@
         <v>21655</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>109213.84</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5.043399999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>109213.84</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>212.31</v>
       </c>
-      <c r="G15" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="29" t="inlineStr"/>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -7805,17 +7811,16 @@
         <v>21324</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>107596.93</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5.0457</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>107596.93</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.62</v>
       </c>
-      <c r="G16" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -7826,17 +7831,16 @@
         <v>21265</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>107433.22</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>5.0521</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>107433.22</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.53</v>
       </c>
-      <c r="G17" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -7847,17 +7851,16 @@
         <v>21233</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>107366.18</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5.0565</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>107366.18</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.43</v>
       </c>
-      <c r="G18" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G18" s="29" t="inlineStr"/>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -7868,17 +7871,16 @@
         <v>21217</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>107413.11</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>5.062600000000001</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>107413.11</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.84</v>
       </c>
-      <c r="G19" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G19" s="29" t="inlineStr"/>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -7889,17 +7891,16 @@
         <v>21195</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>107306.28</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>5.0627</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>107306.28</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5.51</v>
       </c>
-      <c r="G20" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G20" s="29" t="inlineStr"/>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -7910,17 +7911,16 @@
         <v>21096</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>106858.93</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>5.065300000000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>106858.93</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1.33</v>
       </c>
-      <c r="G21" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G21" s="29" t="inlineStr"/>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -7931,15 +7931,14 @@
         <v>21069</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>107038.56</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5.0804</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>107038.56</v>
-      </c>
       <c r="F22" s="29" t="inlineStr"/>
-      <c r="G22" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G22" s="29" t="inlineStr"/>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -7950,15 +7949,14 @@
         <v>21000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.0714</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>106500</v>
-      </c>
       <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -7969,15 +7967,14 @@
         <v>20700</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>105000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5.0725</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>105000</v>
-      </c>
       <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -7988,15 +7985,14 @@
         <v>20800</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>106000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5.0962</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>106000</v>
-      </c>
       <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -8007,15 +8003,14 @@
         <v>20600</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>104000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.0485</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>104000</v>
-      </c>
       <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -8026,15 +8021,14 @@
         <v>20500</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>105000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.122</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>105000</v>
-      </c>
       <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -8045,15 +8039,14 @@
         <v>20700</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>103000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>4.9758</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>103000</v>
-      </c>
       <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -8064,15 +8057,14 @@
         <v>20500</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.3659</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>110000</v>
-      </c>
       <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -8083,15 +8075,14 @@
         <v>20266</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>104865.27</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5.1745</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>104865.27</v>
-      </c>
       <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -8102,15 +8093,14 @@
         <v>20000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>104000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5.2</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>104000</v>
-      </c>
       <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -8121,15 +8111,14 @@
         <v>19869</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>102557.15</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5.1617</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>102557.15</v>
-      </c>
       <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -8140,15 +8129,14 @@
         <v>19756</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>102000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5.1631</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>102000</v>
-      </c>
       <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -8159,15 +8147,14 @@
         <v>19500</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>5.1282</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>100000</v>
-      </c>
       <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -8178,15 +8165,14 @@
         <v>18500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>97500</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>5.2703</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>97500</v>
-      </c>
       <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -8197,15 +8183,14 @@
         <v>18540</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>5.178</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>96000</v>
-      </c>
       <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -8216,15 +8201,14 @@
         <v>18000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>93000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5.1667</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>93000</v>
-      </c>
       <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -8235,15 +8219,14 @@
         <v>17573</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>91000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5.1785</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>91000</v>
-      </c>
       <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -8254,15 +8237,14 @@
         <v>17476</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>90584.47</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5.1834</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>90584.47</v>
-      </c>
       <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -8273,15 +8255,14 @@
         <v>17347</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5.1882</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>90000</v>
-      </c>
       <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -8292,15 +8273,14 @@
         <v>17000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>89000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5.235300000000001</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>89000</v>
-      </c>
       <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -8311,15 +8291,14 @@
         <v>16950</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>88000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5.1916</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>88000</v>
-      </c>
       <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -8330,15 +8309,14 @@
         <v>16758</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>5.1916</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>87000</v>
-      </c>
       <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -8349,15 +8327,14 @@
         <v>16567</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>86000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5.1911</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>86000</v>
-      </c>
       <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -8368,15 +8345,14 @@
         <v>16500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>5.1515</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>85000</v>
-      </c>
       <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -8387,15 +8363,14 @@
         <v>16000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>84000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5.25</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>84000</v>
-      </c>
       <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -8406,15 +8381,14 @@
         <v>16000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>83000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5.1875</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>83000</v>
-      </c>
       <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -8425,15 +8399,14 @@
         <v>16000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>82000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>5.125</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>82000</v>
-      </c>
       <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -8444,15 +8417,14 @@
         <v>16000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>82000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>5.125</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>82000</v>
-      </c>
       <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -8463,15 +8435,14 @@
         <v>15500</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>81000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>5.2258</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>81000</v>
-      </c>
       <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -8482,15 +8453,14 @@
         <v>15500</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>81000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5.2258</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>81000</v>
-      </c>
       <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -8501,15 +8471,14 @@
         <v>15500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5.1613</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>80000</v>
-      </c>
       <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -8520,15 +8489,14 @@
         <v>15000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>78000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>5.2</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>78000</v>
-      </c>
       <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -8539,15 +8507,14 @@
         <v>15000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5.1333</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>77000</v>
-      </c>
       <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -8558,15 +8525,14 @@
         <v>15000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>78000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5.2</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>78000</v>
-      </c>
       <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -8577,15 +8543,14 @@
         <v>15000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>78000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.2</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>78000</v>
-      </c>
       <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -8596,15 +8561,14 @@
         <v>15000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5.1333</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>77000</v>
-      </c>
       <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -8615,15 +8579,14 @@
         <v>15000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5.1333</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>77000</v>
-      </c>
       <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -8634,15 +8597,14 @@
         <v>15000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5.1333</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>77000</v>
-      </c>
       <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -8653,15 +8615,14 @@
         <v>14500</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5.2414</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>76000</v>
-      </c>
       <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -8672,15 +8633,14 @@
         <v>14500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5.2414</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>76000</v>
-      </c>
       <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -8691,15 +8651,14 @@
         <v>14000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>5.285699999999999</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>74000</v>
-      </c>
       <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -8710,15 +8669,14 @@
         <v>14000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5.1429</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>72000</v>
-      </c>
       <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -8729,15 +8687,14 @@
         <v>13500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5.1852</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>70000</v>
-      </c>
       <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -8748,15 +8705,14 @@
         <v>13000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5.1538</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>67000</v>
-      </c>
       <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -8767,15 +8723,14 @@
         <v>12500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5.2</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>65000</v>
-      </c>
       <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -8786,15 +8741,14 @@
         <v>12500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4.96</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>62000</v>
-      </c>
       <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -8805,15 +8759,14 @@
         <v>12000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4.9167</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>59000</v>
-      </c>
       <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -8823,15 +8776,14 @@
         <v>11500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4.9565</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>57000</v>
-      </c>
       <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -8841,15 +8793,14 @@
         <v>11500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4.7826</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>55000</v>
-      </c>
       <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -8859,15 +8810,14 @@
         <v>11000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>53000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>4.8182</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>53000</v>
-      </c>
       <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -8877,15 +8827,14 @@
         <v>10500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4.9524</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>52000</v>
-      </c>
       <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -8895,15 +8844,14 @@
         <v>10500</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>51000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>4.8571</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>51000</v>
-      </c>
       <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -8913,15 +8861,14 @@
         <v>10500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4.7619</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>50000</v>
-      </c>
       <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -8930,6 +8877,7 @@
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
       <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -8938,6 +8886,7 @@
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
       <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -9247,7 +9196,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9326,17 +9275,14 @@
         <v>3031</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>82153</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>27.1043</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>82153</v>
-      </c>
-      <c r="F12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="29" t="inlineStr"/>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -9347,17 +9293,14 @@
         <v>2775</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>82928</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>29.884</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>82928</v>
-      </c>
-      <c r="F13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="29" t="inlineStr"/>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -9368,17 +9311,14 @@
         <v>3439</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>79778</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>23.198</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>79778</v>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="29" t="inlineStr"/>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -9389,17 +9329,14 @@
         <v>3259</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>79863</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>24.5054</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>79863</v>
-      </c>
-      <c r="F15" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="29" t="inlineStr"/>
+      <c r="G15" s="29" t="inlineStr"/>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -9410,17 +9347,14 @@
         <v>3082</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>78443</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>25.452</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>78443</v>
-      </c>
-      <c r="F16" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="29" t="inlineStr"/>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -9431,17 +9365,14 @@
         <v>3329</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>75437</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>22.6606</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>75437</v>
-      </c>
-      <c r="F17" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="29" t="inlineStr"/>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -9452,17 +9383,14 @@
         <v>10966</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>77122</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>7.0328</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>77122</v>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" s="29" t="inlineStr"/>
+      <c r="G18" s="29" t="inlineStr"/>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -9473,17 +9401,14 @@
         <v>11145</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>74192</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6.657</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>74192</v>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="29" t="inlineStr"/>
+      <c r="G19" s="29" t="inlineStr"/>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -9494,17 +9419,14 @@
         <v>10517</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>69334</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.5926</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>69334</v>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="29" t="inlineStr"/>
+      <c r="G20" s="29" t="inlineStr"/>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -9515,17 +9437,14 @@
         <v>7947</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>62879</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>7.9123</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>62879</v>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="29" t="inlineStr"/>
+      <c r="G21" s="29" t="inlineStr"/>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -9536,17 +9455,14 @@
         <v>8077</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>74600</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>9.2361</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>74600</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="29" t="inlineStr"/>
+      <c r="G22" s="29" t="inlineStr"/>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -9557,17 +9473,14 @@
         <v>8153</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>78860</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>9.672499999999999</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>78860</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="29" t="inlineStr"/>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -9578,17 +9491,14 @@
         <v>8183</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>76643</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>9.366100000000001</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>76643</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="29" t="inlineStr"/>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -9599,17 +9509,14 @@
         <v>8255</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>75096</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.097</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>75096</v>
-      </c>
-      <c r="F25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="29" t="inlineStr"/>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -9620,17 +9527,14 @@
         <v>7970</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>67986</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8.530200000000001</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>67986</v>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" s="29" t="inlineStr"/>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -9641,17 +9545,14 @@
         <v>7660</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>65140</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>8.5039</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>65140</v>
-      </c>
-      <c r="F27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" s="29" t="inlineStr"/>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -9662,17 +9563,14 @@
         <v>6980</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>61665</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>8.8345</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>61665</v>
-      </c>
-      <c r="F28" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" s="29" t="inlineStr"/>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -9683,17 +9581,14 @@
         <v>6760</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>51558</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>7.6269</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>51558</v>
-      </c>
-      <c r="F29" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" s="29" t="inlineStr"/>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -9704,17 +9599,14 @@
         <v>7060</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>7.7904</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" s="29" t="inlineStr"/>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -9725,17 +9617,14 @@
         <v>7093</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>7.0492</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" s="29" t="inlineStr"/>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -9746,17 +9635,14 @@
         <v>7259</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7.5768</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -9767,17 +9653,14 @@
         <v>7093</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>7.7541</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -9788,17 +9671,14 @@
         <v>7359</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>55000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>7.4738</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" s="29" t="inlineStr"/>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -9809,17 +9689,14 @@
         <v>8125</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7.384600000000001</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -9830,17 +9707,14 @@
         <v>8075</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8.0495</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>65000</v>
-      </c>
-      <c r="F36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" s="29" t="inlineStr"/>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -9851,17 +9725,14 @@
         <v>8242</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>7.8864</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>65000</v>
-      </c>
-      <c r="F37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" s="29" t="inlineStr"/>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -9872,17 +9743,14 @@
         <v>8633</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.4559</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>73000</v>
-      </c>
-      <c r="F38" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" s="29" t="inlineStr"/>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -9893,17 +9761,14 @@
         <v>8833</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8.377700000000001</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>74000</v>
-      </c>
-      <c r="F39" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" s="29" t="inlineStr"/>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -9914,17 +9779,14 @@
         <v>9043</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.293700000000001</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F40" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" s="29" t="inlineStr"/>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -9935,17 +9797,14 @@
         <v>9133</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>78000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8.5405</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>78000</v>
-      </c>
-      <c r="F41" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" s="29" t="inlineStr"/>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -9956,17 +9815,14 @@
         <v>9233</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8.231299999999999</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>76000</v>
-      </c>
-      <c r="F42" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" s="29" t="inlineStr"/>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -9977,17 +9833,14 @@
         <v>9267</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.6328</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>80000</v>
-      </c>
-      <c r="F43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -9998,17 +9851,14 @@
         <v>9483</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>82000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>8.6471</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>82000</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -10019,17 +9869,14 @@
         <v>9567</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8.3621</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>80000</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -10040,17 +9887,14 @@
         <v>9867</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>8.614600000000001</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>85000</v>
-      </c>
-      <c r="F46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -10061,17 +9905,14 @@
         <v>10173</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>8.8469</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -10082,17 +9923,14 @@
         <v>10433</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>8.1472</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>85000</v>
-      </c>
-      <c r="F48" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -10103,17 +9941,14 @@
         <v>10500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8.0952</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>85000</v>
-      </c>
-      <c r="F49" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -10124,17 +9959,14 @@
         <v>11000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8.181800000000001</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F50" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -10145,17 +9977,14 @@
         <v>11333</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7.5002</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>85000</v>
-      </c>
-      <c r="F51" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -10166,17 +9995,14 @@
         <v>11667</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>97000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8.314</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>97000</v>
-      </c>
-      <c r="F52" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -10187,17 +10013,14 @@
         <v>11667</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7.7141</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F53" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -10208,17 +10031,14 @@
         <v>11283</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>7.9766</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F54" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -10229,17 +10049,14 @@
         <v>11167</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>95000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8.507200000000001</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>95000</v>
-      </c>
-      <c r="F55" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -10250,17 +10067,14 @@
         <v>12567</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>93000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7.400300000000001</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>93000</v>
-      </c>
-      <c r="F56" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -10271,17 +10085,14 @@
         <v>12583</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>93000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>7.390899999999999</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>93000</v>
-      </c>
-      <c r="F57" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -10292,17 +10103,14 @@
         <v>12667</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7.1051</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F58" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -10313,17 +10121,14 @@
         <v>12667</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>103000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8.131399999999999</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>103000</v>
-      </c>
-      <c r="F59" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -10334,17 +10139,14 @@
         <v>12333</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>7.2975</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F60" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -10355,17 +10157,14 @@
         <v>12333</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>7.2975</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F61" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -10376,17 +10175,14 @@
         <v>12333</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7.2975</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -10397,17 +10193,14 @@
         <v>12333</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>96700</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7.8408</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>96700</v>
-      </c>
-      <c r="F63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -10418,17 +10211,14 @@
         <v>12477</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>101109</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>8.1036</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>101109</v>
-      </c>
-      <c r="F64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -10439,17 +10229,14 @@
         <v>12543</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>106000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.450899999999999</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>106000</v>
-      </c>
-      <c r="F65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -10460,17 +10247,14 @@
         <v>11560</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>97000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.391</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>97000</v>
-      </c>
-      <c r="F66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -10481,17 +10265,14 @@
         <v>12447</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>106000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.5161</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>106000</v>
-      </c>
-      <c r="F67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -10502,17 +10283,14 @@
         <v>12107</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.2597</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -10522,17 +10300,14 @@
         <v>12213</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>94000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>7.6967</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>94000</v>
-      </c>
-      <c r="F69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -10542,17 +10317,14 @@
         <v>12183</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>7.3873</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -10562,17 +10334,14 @@
         <v>12313</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>7.0657</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>87000</v>
-      </c>
-      <c r="F71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -10582,17 +10351,14 @@
         <v>12673</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>76680</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6.0507</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>76680</v>
-      </c>
-      <c r="F72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -10602,17 +10368,14 @@
         <v>12357</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>81310</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6.580100000000001</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>81310</v>
-      </c>
-      <c r="F73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -10622,17 +10385,14 @@
         <v>12257</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>7.000100000000001</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>85800</v>
-      </c>
-      <c r="F74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -10640,6 +10400,8 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -10647,6 +10409,8 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -10956,7 +10720,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11035,17 +10799,14 @@
         <v>20400</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>80300</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3.9363</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>80300</v>
-      </c>
-      <c r="F12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="29" t="inlineStr"/>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -11056,17 +10817,14 @@
         <v>21200</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>85200</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4.0189</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>85200</v>
-      </c>
-      <c r="F13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="29" t="inlineStr"/>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -11077,17 +10835,14 @@
         <v>21600</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>87600</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>4.0556</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>87600</v>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="29" t="inlineStr"/>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -11098,17 +10853,14 @@
         <v>22300</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>88100</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3.9507</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>88100</v>
-      </c>
-      <c r="F15" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="29" t="inlineStr"/>
+      <c r="G15" s="29" t="inlineStr"/>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -11119,17 +10871,14 @@
         <v>14280</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>54020</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3.7829</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>54020</v>
-      </c>
-      <c r="F16" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="29" t="inlineStr"/>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -11140,17 +10889,14 @@
         <v>14240</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>65980</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>4.6334</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>65980</v>
-      </c>
-      <c r="F17" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="29" t="inlineStr"/>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -11161,17 +10907,14 @@
         <v>12615</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>53392</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>4.232399999999999</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>53392</v>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" s="29" t="inlineStr"/>
+      <c r="G18" s="29" t="inlineStr"/>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -11182,17 +10925,14 @@
         <v>12471</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>54115</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>4.339300000000001</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>54115</v>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="29" t="inlineStr"/>
+      <c r="G19" s="29" t="inlineStr"/>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -11203,17 +10943,14 @@
         <v>8735</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>41956</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4.8034</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>41956</v>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="29" t="inlineStr"/>
+      <c r="G20" s="29" t="inlineStr"/>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -11224,17 +10961,14 @@
         <v>9507</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>47385</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>4.9842</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>47385</v>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="29" t="inlineStr"/>
+      <c r="G21" s="29" t="inlineStr"/>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -11245,17 +10979,14 @@
         <v>10799</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>61852</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5.727600000000001</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>61852</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="29" t="inlineStr"/>
+      <c r="G22" s="29" t="inlineStr"/>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -11266,17 +10997,14 @@
         <v>10198</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>53838</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.2793</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>53838</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="29" t="inlineStr"/>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -11287,17 +11015,14 @@
         <v>9418</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>50578</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5.3704</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>50578</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="29" t="inlineStr"/>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -11308,17 +11033,14 @@
         <v>13447</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>57035</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4.2415</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>57035</v>
-      </c>
-      <c r="F25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="29" t="inlineStr"/>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -11329,17 +11051,14 @@
         <v>5864</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>39167</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6.6792</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>39167</v>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" s="29" t="inlineStr"/>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -11350,17 +11069,14 @@
         <v>6373</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>46787</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>7.341399999999999</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>46787</v>
-      </c>
-      <c r="F27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" s="29" t="inlineStr"/>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -11371,17 +11087,14 @@
         <v>6885</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>38699</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5.6208</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>38699</v>
-      </c>
-      <c r="F28" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" s="29" t="inlineStr"/>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -11392,17 +11105,14 @@
         <v>5254</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>40732</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>7.7526</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>40732</v>
-      </c>
-      <c r="F29" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" s="29" t="inlineStr"/>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -11413,17 +11123,14 @@
         <v>5643</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>38454</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6.8145</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>38454</v>
-      </c>
-      <c r="F30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" s="29" t="inlineStr"/>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -11434,17 +11141,14 @@
         <v>5082</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>38897</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>7.653899999999999</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>38897</v>
-      </c>
-      <c r="F31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" s="29" t="inlineStr"/>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -11455,17 +11159,14 @@
         <v>5144</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>40397</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7.8532</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>40397</v>
-      </c>
-      <c r="F32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -11476,17 +11177,14 @@
         <v>5901</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>33703</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5.711399999999999</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>33703</v>
-      </c>
-      <c r="F33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -11497,17 +11195,14 @@
         <v>4750</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>32500</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6.8421</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>32500</v>
-      </c>
-      <c r="F34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" s="29" t="inlineStr"/>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -11518,17 +11213,14 @@
         <v>4500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6.6667</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -11539,17 +11231,14 @@
         <v>3250</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>28000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8.615399999999999</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>28000</v>
-      </c>
-      <c r="F36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" s="29" t="inlineStr"/>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -11560,17 +11249,14 @@
         <v>2779</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>21645.64</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>7.7883</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>21645.64</v>
-      </c>
-      <c r="F37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" s="29" t="inlineStr"/>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -11581,17 +11267,14 @@
         <v>2134</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16089.71</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.539800000000001</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>16089.71</v>
-      </c>
-      <c r="F38" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" s="29" t="inlineStr"/>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -11602,17 +11285,14 @@
         <v>1566</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11575.38</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7.393</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>11575.38</v>
-      </c>
-      <c r="F39" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" s="29" t="inlineStr"/>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -11623,17 +11303,14 @@
         <v>918</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>6836.1</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7.442699999999999</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>6836.1</v>
-      </c>
-      <c r="F40" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" s="29" t="inlineStr"/>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -11643,16 +11320,13 @@
       <c r="C41" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="29" t="inlineStr"/>
-      <c r="E41" s="29" t="n">
+      <c r="D41" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="E41" s="29" t="inlineStr"/>
+      <c r="F41" s="29" t="inlineStr"/>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -11662,16 +11336,13 @@
       <c r="C42" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="29" t="inlineStr"/>
-      <c r="E42" s="29" t="n">
+      <c r="D42" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="F42" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+      <c r="E42" s="29" t="inlineStr"/>
+      <c r="F42" s="29" t="inlineStr"/>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -11681,12 +11352,9 @@
       <c r="C43" s="29" t="inlineStr"/>
       <c r="D43" s="29" t="inlineStr"/>
       <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -11696,12 +11364,9 @@
       <c r="C44" s="29" t="inlineStr"/>
       <c r="D44" s="29" t="inlineStr"/>
       <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -11711,12 +11376,9 @@
       <c r="C45" s="29" t="inlineStr"/>
       <c r="D45" s="29" t="inlineStr"/>
       <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -11726,12 +11388,9 @@
       <c r="C46" s="29" t="inlineStr"/>
       <c r="D46" s="29" t="inlineStr"/>
       <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -11741,12 +11400,9 @@
       <c r="C47" s="29" t="inlineStr"/>
       <c r="D47" s="29" t="inlineStr"/>
       <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -11756,12 +11412,9 @@
       <c r="C48" s="29" t="inlineStr"/>
       <c r="D48" s="29" t="inlineStr"/>
       <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -11771,12 +11424,9 @@
       <c r="C49" s="29" t="inlineStr"/>
       <c r="D49" s="29" t="inlineStr"/>
       <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -11786,12 +11436,9 @@
       <c r="C50" s="29" t="inlineStr"/>
       <c r="D50" s="29" t="inlineStr"/>
       <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -11801,12 +11448,9 @@
       <c r="C51" s="29" t="inlineStr"/>
       <c r="D51" s="29" t="inlineStr"/>
       <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -11816,12 +11460,9 @@
       <c r="C52" s="29" t="inlineStr"/>
       <c r="D52" s="29" t="inlineStr"/>
       <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -11831,12 +11472,9 @@
       <c r="C53" s="29" t="inlineStr"/>
       <c r="D53" s="29" t="inlineStr"/>
       <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -11846,12 +11484,9 @@
       <c r="C54" s="29" t="inlineStr"/>
       <c r="D54" s="29" t="inlineStr"/>
       <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -11861,12 +11496,9 @@
       <c r="C55" s="29" t="inlineStr"/>
       <c r="D55" s="29" t="inlineStr"/>
       <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -11876,12 +11508,9 @@
       <c r="C56" s="29" t="inlineStr"/>
       <c r="D56" s="29" t="inlineStr"/>
       <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -11891,12 +11520,9 @@
       <c r="C57" s="29" t="inlineStr"/>
       <c r="D57" s="29" t="inlineStr"/>
       <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -11906,12 +11532,9 @@
       <c r="C58" s="29" t="inlineStr"/>
       <c r="D58" s="29" t="inlineStr"/>
       <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -11921,12 +11544,9 @@
       <c r="C59" s="29" t="inlineStr"/>
       <c r="D59" s="29" t="inlineStr"/>
       <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -11936,12 +11556,9 @@
       <c r="C60" s="29" t="inlineStr"/>
       <c r="D60" s="29" t="inlineStr"/>
       <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -11951,12 +11568,9 @@
       <c r="C61" s="29" t="inlineStr"/>
       <c r="D61" s="29" t="inlineStr"/>
       <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -11966,12 +11580,9 @@
       <c r="C62" s="29" t="inlineStr"/>
       <c r="D62" s="29" t="inlineStr"/>
       <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -11981,12 +11592,9 @@
       <c r="C63" s="29" t="inlineStr"/>
       <c r="D63" s="29" t="inlineStr"/>
       <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -11996,12 +11604,9 @@
       <c r="C64" s="29" t="inlineStr"/>
       <c r="D64" s="29" t="inlineStr"/>
       <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -12011,12 +11616,9 @@
       <c r="C65" s="29" t="inlineStr"/>
       <c r="D65" s="29" t="inlineStr"/>
       <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -12026,12 +11628,9 @@
       <c r="C66" s="29" t="inlineStr"/>
       <c r="D66" s="29" t="inlineStr"/>
       <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -12041,12 +11640,9 @@
       <c r="C67" s="29" t="inlineStr"/>
       <c r="D67" s="29" t="inlineStr"/>
       <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -12056,12 +11652,9 @@
       <c r="C68" s="29" t="inlineStr"/>
       <c r="D68" s="29" t="inlineStr"/>
       <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -12070,12 +11663,9 @@
       <c r="C69" s="29" t="inlineStr"/>
       <c r="D69" s="29" t="inlineStr"/>
       <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -12084,12 +11674,9 @@
       <c r="C70" s="29" t="inlineStr"/>
       <c r="D70" s="29" t="inlineStr"/>
       <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -12098,12 +11685,9 @@
       <c r="C71" s="29" t="inlineStr"/>
       <c r="D71" s="29" t="inlineStr"/>
       <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -12112,12 +11696,9 @@
       <c r="C72" s="29" t="inlineStr"/>
       <c r="D72" s="29" t="inlineStr"/>
       <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -12126,12 +11707,9 @@
       <c r="C73" s="29" t="inlineStr"/>
       <c r="D73" s="29" t="inlineStr"/>
       <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -12140,12 +11718,9 @@
       <c r="C74" s="29" t="inlineStr"/>
       <c r="D74" s="29" t="inlineStr"/>
       <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -12153,6 +11728,8 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -12160,6 +11737,8 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
